--- a/app/static/example_input.xlsx
+++ b/app/static/example_input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DESOSHA/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BF650-CD01-9B49-AFFB-F298A9EB44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1F504-E10C-AB4A-A265-E13C4DEE2517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{636B7FC7-AAC8-0142-A92C-0DDD33B1245B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,105 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>UN/LOCODE</t>
+    <t>feature_1</t>
   </si>
   <si>
-    <t>City</t>
+    <t>feature_2</t>
   </si>
   <si>
-    <t>USALC</t>
-  </si>
-  <si>
-    <t>Anchorage</t>
-  </si>
-  <si>
-    <t>USATL</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>USABQ</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>USABN</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>USABG</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>USABR</t>
-  </si>
-  <si>
-    <t>Baton Rouge</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>USABU</t>
-  </si>
-  <si>
-    <t>Burlington</t>
-  </si>
-  <si>
-    <t>USACH</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>USACL</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>OH</t>
+    <t>feature_3</t>
   </si>
 </sst>
 </file>
@@ -485,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187D2EE-3AEF-8B43-A18F-2EFD082CFCD9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,150 +411,117 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-90</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-26</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>-85</v>
+      </c>
+      <c r="C5">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>-34</v>
+      </c>
+      <c r="C6">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-32</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>99501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>30303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>87102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>21201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>70802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>14202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>5401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>60601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>44114</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-14</v>
+      </c>
+      <c r="B11">
+        <v>-72</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
